--- a/zerotha_scanner.xlsx
+++ b/zerotha_scanner.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="12096" windowHeight="5040"/>
   </bookViews>
   <sheets>
     <sheet name="zerotha_scanner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -51,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,16 +852,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -884,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>1000</v>
+        <v>5999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -898,7 +894,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
